--- a/doc/君悦LoRa设备记录_20200506.xlsx
+++ b/doc/君悦LoRa设备记录_20200506.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5850" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="LoRa成品记录" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="84">
   <si>
     <t>供货对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,18 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>灵敏度2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵敏度1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵敏度3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>灵敏度4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,6 +275,22 @@
   </si>
   <si>
     <t>0000180000000057</t>
+  </si>
+  <si>
+    <t>灵敏度2（X）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵敏度1（Z）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵敏度3（Y）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -357,10 +361,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -644,9 +648,9 @@
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,23 +659,25 @@
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -686,20 +692,20 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>53</v>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>0</v>
@@ -708,13 +714,13 @@
         <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -722,23 +728,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" t="str">
         <f>B3&amp;C3</f>
         <v>L10000040001</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -746,23 +752,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D37" si="0">B4&amp;C4</f>
         <v>L10000040002</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -770,23 +776,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>L10000040003</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -794,23 +800,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>L10000040004</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -818,23 +824,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>L10000040005</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -842,23 +848,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>L10000040006</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -866,23 +872,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>L10000040007</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -890,23 +896,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>L10000040008</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -914,23 +920,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>L10000040009</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -938,23 +944,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>L10000040010</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -962,23 +968,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>L10000040011</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -986,23 +992,29 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>L10000040012</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="F14">
+        <v>3.0003000000000002</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1010,23 +1022,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>L10000040013</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1034,23 +1046,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>L10000040014</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1058,23 +1070,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>L10000040015</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1082,23 +1094,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>L10000040016</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1106,23 +1118,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>L10000040017</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1130,23 +1142,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>L10000040018</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1154,23 +1166,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>L10000040019</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1178,23 +1190,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>L10000040020</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1202,23 +1214,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>L10000040021</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1226,23 +1238,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>L10000040022</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1250,23 +1262,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>L10000040023</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1274,23 +1286,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v>L10000040024</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1298,23 +1310,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
         <v>L10000040025</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1322,23 +1334,26 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v>L10000040026</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="F28">
+        <v>3.0003000000000002</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1346,23 +1361,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v>L10000040027</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1370,23 +1385,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>L10000040028</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1394,23 +1409,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>L10000040029</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1418,20 +1433,20 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v>L10000040030</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1439,20 +1454,20 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
         <v>L10000040031</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1460,20 +1475,20 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
         <v>L10000040032</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1481,20 +1496,20 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
         <v>L10000040033</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1502,20 +1517,20 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
         <v>L10000040034</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1523,20 +1538,20 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
         <v>L10000040035</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">

--- a/doc/君悦LoRa设备记录_20200506.xlsx
+++ b/doc/君悦LoRa设备记录_20200506.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="8100" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="LoRa成品记录" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="53">
   <si>
     <t>供货对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,29 +159,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00040031</t>
-  </si>
-  <si>
-    <t>00040032</t>
-  </si>
-  <si>
-    <t>00040033</t>
-  </si>
-  <si>
-    <t>00040034</t>
-  </si>
-  <si>
-    <t>00040035</t>
-  </si>
-  <si>
     <t>北京君悦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,93 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0000180000000061</t>
-  </si>
-  <si>
-    <t>0000180000000042</t>
-  </si>
-  <si>
-    <t>0000180000000053</t>
-  </si>
-  <si>
-    <t>000018000000004e</t>
-  </si>
-  <si>
-    <t>000018000000005b</t>
-  </si>
-  <si>
-    <t>000018000000006c</t>
-  </si>
-  <si>
-    <t>0000180000000044</t>
-  </si>
-  <si>
-    <t>0000180000000068</t>
-  </si>
-  <si>
-    <t>000018000000006b</t>
-  </si>
-  <si>
-    <t>0000180000000048</t>
-  </si>
-  <si>
-    <t>0000180000000069</t>
-  </si>
-  <si>
-    <t>0000180000000043</t>
-  </si>
-  <si>
-    <t>0000180000000071</t>
-  </si>
-  <si>
-    <t>0000180000000041</t>
-  </si>
-  <si>
-    <t>000018000000005a</t>
-  </si>
-  <si>
-    <t>0000180000000046</t>
-  </si>
-  <si>
-    <t>0000180000000070</t>
-  </si>
-  <si>
-    <t>0000180000000062</t>
-  </si>
-  <si>
-    <t>000018000000004f</t>
-  </si>
-  <si>
-    <t>0000180000000059</t>
-  </si>
-  <si>
-    <t>0000180000000045</t>
-  </si>
-  <si>
-    <t>000018000000004b</t>
-  </si>
-  <si>
-    <t>000018000000004a</t>
-  </si>
-  <si>
-    <t>0000180000000063</t>
-  </si>
-  <si>
-    <t>000018000000005f</t>
-  </si>
-  <si>
-    <t>0000180000000064</t>
-  </si>
-  <si>
-    <t>0000180000000052</t>
-  </si>
-  <si>
-    <t>0000180000000055</t>
-  </si>
-  <si>
-    <t>0000180000000057</t>
-  </si>
-  <si>
     <t>灵敏度2（X）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,7 +183,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
+  </si>
+  <si>
+    <t>0.2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +559,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -693,16 +602,16 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
@@ -720,7 +629,7 @@
         <v>37</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -737,13 +646,19 @@
         <f>B3&amp;C3</f>
         <v>L10000040001</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
+      <c r="G3">
+        <v>11.22</v>
+      </c>
+      <c r="H3">
+        <v>11.153</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -758,16 +673,22 @@
         <v>7</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D37" si="0">B4&amp;C4</f>
+        <f t="shared" ref="D4:D32" si="0">B4&amp;C4</f>
         <v>L10000040002</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>52</v>
+      <c r="G4">
+        <v>11.212400000000001</v>
+      </c>
+      <c r="H4">
+        <v>11.138999999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -785,13 +706,19 @@
         <f t="shared" si="0"/>
         <v>L10000040003</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>53</v>
+      <c r="G5">
+        <v>11.112769999999999</v>
+      </c>
+      <c r="H5">
+        <v>11.18</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -809,13 +736,19 @@
         <f t="shared" si="0"/>
         <v>L10000040004</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>54</v>
+      <c r="G6">
+        <v>11.09</v>
+      </c>
+      <c r="H6">
+        <v>11.085000000000001</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -833,13 +766,19 @@
         <f t="shared" si="0"/>
         <v>L10000040005</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>55</v>
+      <c r="G7">
+        <v>11.34</v>
+      </c>
+      <c r="H7">
+        <v>11.08</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -857,13 +796,19 @@
         <f t="shared" si="0"/>
         <v>L10000040006</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>56</v>
+      <c r="G8">
+        <v>11.34</v>
+      </c>
+      <c r="H8">
+        <v>11.09</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -881,13 +826,19 @@
         <f t="shared" si="0"/>
         <v>L10000040007</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>57</v>
+      <c r="G9">
+        <v>10.99</v>
+      </c>
+      <c r="H9">
+        <v>11.121499999999999</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -905,13 +856,19 @@
         <f t="shared" si="0"/>
         <v>L10000040008</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>58</v>
+      <c r="G10">
+        <v>11.409000000000001</v>
+      </c>
+      <c r="H10">
+        <v>11.26</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -929,13 +886,19 @@
         <f t="shared" si="0"/>
         <v>L10000040009</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>59</v>
+      <c r="G11">
+        <v>10.959</v>
+      </c>
+      <c r="H11">
+        <v>11.099</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -953,13 +916,19 @@
         <f t="shared" si="0"/>
         <v>L10000040010</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>60</v>
+      <c r="G12">
+        <v>11.26</v>
+      </c>
+      <c r="H12">
+        <v>11.166</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -977,14 +946,20 @@
         <f t="shared" si="0"/>
         <v>L10000040011</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>61</v>
+      <c r="G13">
+        <v>11.3148</v>
+      </c>
+      <c r="H13">
+        <v>11.11</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1001,20 +976,20 @@
         <f t="shared" si="0"/>
         <v>L10000040012</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14">
-        <v>3.0003000000000002</v>
+      <c r="G14">
+        <v>11.099</v>
+      </c>
+      <c r="H14">
+        <v>11.307</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1031,13 +1006,19 @@
         <f t="shared" si="0"/>
         <v>L10000040013</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>63</v>
+      <c r="G15">
+        <v>11.368</v>
+      </c>
+      <c r="H15">
+        <v>11.1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1055,17 +1036,23 @@
         <f t="shared" si="0"/>
         <v>L10000040014</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>64</v>
+      <c r="G16">
+        <v>11.22</v>
+      </c>
+      <c r="H16">
+        <v>11.33</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1079,17 +1066,23 @@
         <f t="shared" si="0"/>
         <v>L10000040015</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>65</v>
+      <c r="G17">
+        <v>11.19</v>
+      </c>
+      <c r="H17">
+        <v>11.19</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1103,17 +1096,23 @@
         <f t="shared" si="0"/>
         <v>L10000040016</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>66</v>
+      <c r="G18">
+        <v>11.21</v>
+      </c>
+      <c r="H18">
+        <v>11.22</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1127,17 +1126,23 @@
         <f t="shared" si="0"/>
         <v>L10000040017</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>67</v>
+      <c r="G19">
+        <v>11.3148</v>
+      </c>
+      <c r="H19">
+        <v>11.355</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1151,17 +1156,23 @@
         <f t="shared" si="0"/>
         <v>L10000040018</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>68</v>
+      <c r="G20">
+        <v>11.125999999999999</v>
+      </c>
+      <c r="H20">
+        <v>11.2</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1175,17 +1186,23 @@
         <f t="shared" si="0"/>
         <v>L10000040019</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>69</v>
+      <c r="G21">
+        <v>11.18</v>
+      </c>
+      <c r="H21">
+        <v>11.287000000000001</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1199,17 +1216,23 @@
         <f t="shared" si="0"/>
         <v>L10000040020</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>70</v>
+      <c r="G22">
+        <v>11.166</v>
+      </c>
+      <c r="H22">
+        <v>11.1127</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1223,17 +1246,23 @@
         <f t="shared" si="0"/>
         <v>L10000040021</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>71</v>
+      <c r="G23">
+        <v>11.2407</v>
+      </c>
+      <c r="H23">
+        <v>11.071999999999999</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1247,17 +1276,23 @@
         <f t="shared" si="0"/>
         <v>L10000040022</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>72</v>
+      <c r="G24">
+        <v>11.178000000000001</v>
+      </c>
+      <c r="H24">
+        <v>11.045</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1271,17 +1306,23 @@
         <f t="shared" si="0"/>
         <v>L10000040023</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>73</v>
+      <c r="G25">
+        <v>11.3148</v>
+      </c>
+      <c r="H25">
+        <v>11.045400000000001</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1295,17 +1336,23 @@
         <f t="shared" si="0"/>
         <v>L10000040024</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>74</v>
+      <c r="G26">
+        <v>11.083</v>
+      </c>
+      <c r="H26">
+        <v>11.138999999999999</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1319,17 +1366,23 @@
         <f t="shared" si="0"/>
         <v>L10000040025</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>75</v>
+      <c r="G27">
+        <v>11.3</v>
+      </c>
+      <c r="H27">
+        <v>11.05</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1343,20 +1396,23 @@
         <f t="shared" si="0"/>
         <v>L10000040026</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28">
-        <v>3.0003000000000002</v>
+      <c r="G28">
+        <v>11.287000000000001</v>
+      </c>
+      <c r="H28">
+        <v>11.138999999999999</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1370,17 +1426,17 @@
         <f t="shared" si="0"/>
         <v>L10000040027</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1394,17 +1450,23 @@
         <f t="shared" si="0"/>
         <v>L10000040028</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>78</v>
+      <c r="G30">
+        <v>11.194000000000001</v>
+      </c>
+      <c r="H30">
+        <v>11.18</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1418,17 +1480,23 @@
         <f t="shared" si="0"/>
         <v>L10000040029</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>79</v>
+      <c r="G31">
+        <v>11.3</v>
+      </c>
+      <c r="H31">
+        <v>11.340999999999999</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1442,176 +1510,116 @@
         <f t="shared" si="0"/>
         <v>L10000040030</v>
       </c>
+      <c r="G32">
+        <v>11.3</v>
+      </c>
+      <c r="H32">
+        <v>11.045400000000001</v>
+      </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>L10000040031</v>
-      </c>
-      <c r="J33" t="s">
-        <v>47</v>
-      </c>
-      <c r="K33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>L10000040032</v>
-      </c>
-      <c r="J34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>L10000040033</v>
-      </c>
-      <c r="J35" t="s">
-        <v>47</v>
-      </c>
-      <c r="K35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C35" s="2"/>
+      <c r="G35">
+        <v>11.27</v>
+      </c>
+      <c r="H35">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>L10000040034</v>
-      </c>
-      <c r="J36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>L10000040035</v>
-      </c>
-      <c r="J37" t="s">
-        <v>47</v>
-      </c>
-      <c r="K37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>

--- a/doc/君悦LoRa设备记录_20200506.xlsx
+++ b/doc/君悦LoRa设备记录_20200506.xlsx
@@ -1,52 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8100" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="21000" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="LoRa成品记录" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="53">
+  <si>
+    <t>君悦LoRa振动传感器记录</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>SN码</t>
+  </si>
+  <si>
+    <t>lora模块编号</t>
+  </si>
+  <si>
+    <t>灵敏度1（Z）</t>
+  </si>
+  <si>
+    <t>灵敏度2（X）</t>
+  </si>
+  <si>
+    <t>灵敏度3（Y）</t>
+  </si>
+  <si>
+    <t>灵敏度4</t>
+  </si>
   <si>
     <t>供货对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵敏度4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>L100</t>
+  </si>
+  <si>
+    <t>00040001</t>
+  </si>
+  <si>
+    <t>北京君悦</t>
+  </si>
+  <si>
+    <t>入库</t>
+  </si>
+  <si>
+    <t>0.2.9</t>
+  </si>
+  <si>
+    <t>60s</t>
   </si>
   <si>
     <t>00040002</t>
@@ -58,6 +88,9 @@
     <t>00040004</t>
   </si>
   <si>
+    <t>1800s</t>
+  </si>
+  <si>
     <t>00040005</t>
   </si>
   <si>
@@ -79,6 +112,12 @@
     <t>00040011</t>
   </si>
   <si>
+    <t>发货</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
     <t>00040012</t>
   </si>
   <si>
@@ -134,90 +173,31 @@
   </si>
   <si>
     <t>00040030</t>
-  </si>
-  <si>
-    <t>生产日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君悦LoRa振动传感器记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L100</t>
-  </si>
-  <si>
-    <t>L100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00040001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京君悦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lora模块编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵敏度2（X）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵敏度1（Z）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵敏度3（Y）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2.9</t>
-  </si>
-  <si>
-    <t>0.2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待校准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -226,21 +206,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,8 +374,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -262,30 +569,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -334,7 +927,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -369,7 +962,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -543,104 +1136,99 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
-    <col min="6" max="8" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2"/>
+    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="13.375" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="25.5" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D3" t="str">
         <f>B3&amp;C3</f>
@@ -653,84 +1241,93 @@
         <v>11.153</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D32" si="0">B4&amp;C4</f>
         <v>L10000040002</v>
       </c>
       <c r="G4">
-        <v>11.212400000000001</v>
+        <v>11.2124</v>
       </c>
       <c r="H4">
-        <v>11.138999999999999</v>
+        <v>11.139</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>L10000040003</v>
       </c>
       <c r="G5">
-        <v>11.112769999999999</v>
+        <v>11.11277</v>
       </c>
       <c r="H5">
         <v>11.18</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -740,27 +1337,30 @@
         <v>11.09</v>
       </c>
       <c r="H6">
-        <v>11.085000000000001</v>
+        <v>11.085</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -773,24 +1373,27 @@
         <v>11.08</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -803,24 +1406,27 @@
         <v>11.09</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -830,57 +1436,63 @@
         <v>10.99</v>
       </c>
       <c r="H9">
-        <v>11.121499999999999</v>
+        <v>11.1215</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>L10000040008</v>
       </c>
       <c r="G10">
-        <v>11.409000000000001</v>
+        <v>11.409</v>
       </c>
       <c r="H10">
         <v>11.26</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -893,24 +1505,27 @@
         <v>11.099</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -923,24 +1538,27 @@
         <v>11.166</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -953,24 +1571,27 @@
         <v>11.11</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -983,24 +1604,27 @@
         <v>11.307</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -1013,24 +1637,27 @@
         <v>11.1</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -1043,24 +1670,27 @@
         <v>11.33</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -1073,24 +1703,27 @@
         <v>11.19</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -1103,24 +1736,27 @@
         <v>11.22</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1133,54 +1769,60 @@
         <v>11.355</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>L10000040018</v>
       </c>
       <c r="G20">
-        <v>11.125999999999999</v>
+        <v>11.126</v>
       </c>
       <c r="H20">
         <v>11.2</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -1190,27 +1832,30 @@
         <v>11.18</v>
       </c>
       <c r="H21">
-        <v>11.287000000000001</v>
+        <v>11.287</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -1223,24 +1868,27 @@
         <v>11.1127</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -1250,57 +1898,63 @@
         <v>11.2407</v>
       </c>
       <c r="H23">
-        <v>11.071999999999999</v>
+        <v>11.072</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>L10000040022</v>
       </c>
       <c r="G24">
-        <v>11.178000000000001</v>
+        <v>11.178</v>
       </c>
       <c r="H24">
         <v>11.045</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -1310,27 +1964,30 @@
         <v>11.3148</v>
       </c>
       <c r="H25">
-        <v>11.045400000000001</v>
+        <v>11.0454</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -1340,27 +1997,30 @@
         <v>11.083</v>
       </c>
       <c r="H26">
-        <v>11.138999999999999</v>
+        <v>11.139</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -1373,108 +2033,126 @@
         <v>11.05</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v>L10000040026</v>
       </c>
       <c r="G28">
-        <v>11.287000000000001</v>
+        <v>11.287</v>
       </c>
       <c r="H28">
-        <v>11.138999999999999</v>
+        <v>11.139</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>50</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v>L10000040027</v>
       </c>
+      <c r="G29">
+        <v>11.27</v>
+      </c>
+      <c r="H29">
+        <v>11.1</v>
+      </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>50</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>L10000040028</v>
       </c>
       <c r="G30">
-        <v>11.194000000000001</v>
+        <v>11.194</v>
       </c>
       <c r="H30">
         <v>11.18</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -1484,27 +2162,30 @@
         <v>11.3</v>
       </c>
       <c r="H31">
-        <v>11.340999999999999</v>
+        <v>11.341</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>50</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -1514,351 +2195,348 @@
         <v>11.3</v>
       </c>
       <c r="H32">
-        <v>11.045400000000001</v>
+        <v>11.0454</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>50</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="G35">
-        <v>11.27</v>
-      </c>
-      <c r="H35">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="C86" s="2"/>
+      <c r="C86" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>